--- a/Figure4/Fig4d_lactation_chow_bar.xlsx
+++ b/Figure4/Fig4d_lactation_chow_bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murrell\OneDrive - Washington University in St. Louis\Documents\Github\Ghrelinpaper\Murrell2025\Figure4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D81B75F4-A10C-46BA-9EF9-F7FFAD13610E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F422326-B671-4B19-9BF2-5E496287C269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33450" yWindow="975" windowWidth="20895" windowHeight="13905" xr2:uid="{6BE894D2-146A-4C0E-9B15-208C05F1A310}"/>
   </bookViews>
@@ -38,15 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>basliene</t>
-  </si>
-  <si>
-    <t>anticipation</t>
-  </si>
-  <si>
-    <t>chow</t>
-  </si>
-  <si>
     <t>Condition</t>
   </si>
   <si>
@@ -96,13 +87,22 @@
   </si>
   <si>
     <t>L10_mouse8</t>
+  </si>
+  <si>
+    <t>Anticipatory</t>
+  </si>
+  <si>
+    <t>Chow</t>
+  </si>
+  <si>
+    <t>Baseline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +113,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -135,10 +140,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -478,67 +486,67 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
-      </c>
-      <c r="O1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="A2" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B2" s="1">
         <v>-0.123573478</v>
@@ -591,7 +599,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
         <v>-1.73364355</v>
@@ -643,8 +651,8 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
+      <c r="A4" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="1">
         <v>-1.78983</v>
@@ -697,5 +705,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>